--- a/depuracion/testdata/testdata.xlsx
+++ b/depuracion/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrosario\git\depuracion\depuracion\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DDE17A-9DB0-4E36-B5BB-692952D202DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63565324-D9BA-42B6-9901-4A653516F16E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5240" xr2:uid="{11FCAED0-D6E0-4838-AFE2-6225B34084DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>usuario</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>jairistasdfsdfdddasddssas@aol.com</t>
+  </si>
+  <si>
+    <t>resultado</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F06A6-C0F3-400D-865C-6573AF119AFD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,7 +424,7 @@
     <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -428,21 +434,36 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FC050264-5E28-4AC1-94C7-7437CF42103B}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FC050264-5E28-4AC1-94C7-7437CF42103B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D7BB5D5E-2045-4748-99F6-3C78723DFA3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/depuracion/testdata/testdata.xlsx
+++ b/depuracion/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrosario\git\depuracion\depuracion\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63565324-D9BA-42B6-9901-4A653516F16E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E5C7F-01E8-4EDC-8E4A-0C5F4705B4D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5240" xr2:uid="{11FCAED0-D6E0-4838-AFE2-6225B34084DD}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>Login</t>
   </si>
   <si>
-    <t>jairistasdfsdfdddasddssas@aol.com</t>
-  </si>
-  <si>
     <t>resultado</t>
+  </si>
+  <si>
+    <t>jairidssas@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/depuracion/testdata/testdata.xlsx
+++ b/depuracion/testdata/testdata.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrosario\git\depuracion\depuracion\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E5C7F-01E8-4EDC-8E4A-0C5F4705B4D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{552AF45B-2A6A-4EC4-B614-F20F16F4A6CA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5240" xr2:uid="{11FCAED0-D6E0-4838-AFE2-6225B34084DD}"/>
+    <workbookView windowHeight="5235" windowWidth="14385" xWindow="0" xr2:uid="{11FCAED0-D6E0-4838-AFE2-6225B34084DD}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$D$3</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>usuario</t>
   </si>
@@ -48,13 +51,23 @@
     <t>resultado</t>
   </si>
   <si>
-    <t>jairidssas@yahoo.com</t>
+    <t>jairist@yahoo.com</t>
+  </si>
+  <si>
+    <t>jairist@gmail.com</t>
+  </si>
+  <si>
+    <t>Valido</t>
+  </si>
+  <si>
+    <t>Invalido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,19 +103,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,10 +132,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -157,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -209,7 +222,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,21 +333,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -351,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -403,28 +416,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F06A6-C0F3-400D-865C-6573AF119AFD}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F06A6-C0F3-400D-865C-6573AF119AFD}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -438,33 +452,55 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{FC050264-5E28-4AC1-94C7-7437CF42103B}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D7BB5D5E-2045-4748-99F6-3C78723DFA3C}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{FC050264-5E28-4AC1-94C7-7437CF42103B}"/>
+    <hyperlink r:id="rId2" ref="B3" xr:uid="{327AA038-60E9-4A15-BDED-E82527F49F3A}"/>
+    <hyperlink r:id="rId3" ref="B4" xr:uid="{988A7E0E-3D2A-4BFD-909F-18BC8F5E6529}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/depuracion/testdata/testdata.xlsx
+++ b/depuracion/testdata/testdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>usuario</t>
   </si>
